--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9277923-9591-4D99-8755-8A47F755603D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DD860-6204-4861-9DCE-8A6956BBCBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DD860-6204-4861-9DCE-8A6956BBCBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4E8F7-FB3B-435C-9282-BDA244226F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4E8F7-FB3B-435C-9282-BDA244226F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654DF9B-4172-4204-B6AC-A4BB9D246DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654DF9B-4172-4204-B6AC-A4BB9D246DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B7B57-3A7E-4094-9E63-6A158240B8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="173">
   <si>
     <t>Book ID</t>
   </si>
@@ -430,13 +430,133 @@
   </si>
   <si>
     <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>TLB3331</t>
+  </si>
+  <si>
+    <t>TLB3341</t>
+  </si>
+  <si>
+    <t>TLB3351</t>
+  </si>
+  <si>
+    <t>TLB3361</t>
+  </si>
+  <si>
+    <t>TLB3372</t>
+  </si>
+  <si>
+    <t>TLB3382</t>
+  </si>
+  <si>
+    <t>TLB3392</t>
+  </si>
+  <si>
+    <t>TLB3402</t>
+  </si>
+  <si>
+    <t>TLB3413</t>
+  </si>
+  <si>
+    <t>TLB3423</t>
+  </si>
+  <si>
+    <t>TLB3433</t>
+  </si>
+  <si>
+    <t>TLB3443</t>
+  </si>
+  <si>
+    <t>TLB3454</t>
+  </si>
+  <si>
+    <t>TLB3464</t>
+  </si>
+  <si>
+    <t>TLB3474</t>
+  </si>
+  <si>
+    <t>TLB3484</t>
+  </si>
+  <si>
+    <t>TLB3495</t>
+  </si>
+  <si>
+    <t>TLB3505</t>
+  </si>
+  <si>
+    <t>TLB3515</t>
+  </si>
+  <si>
+    <t>TLB3525</t>
+  </si>
+  <si>
+    <t>TLB3536</t>
+  </si>
+  <si>
+    <t>TLB3546</t>
+  </si>
+  <si>
+    <t>TLB3556</t>
+  </si>
+  <si>
+    <t>TLB3566</t>
+  </si>
+  <si>
+    <t>TLB3577</t>
+  </si>
+  <si>
+    <t>TLB3587</t>
+  </si>
+  <si>
+    <t>TLB3597</t>
+  </si>
+  <si>
+    <t>TLB3607</t>
+  </si>
+  <si>
+    <t>TLB3618</t>
+  </si>
+  <si>
+    <t>TLB3628</t>
+  </si>
+  <si>
+    <t>TLB3638</t>
+  </si>
+  <si>
+    <t>TLB3648</t>
+  </si>
+  <si>
+    <t>TLB3659</t>
+  </si>
+  <si>
+    <t>TLB3669</t>
+  </si>
+  <si>
+    <t>TLB3679</t>
+  </si>
+  <si>
+    <t>TLB3689</t>
+  </si>
+  <si>
+    <t>TLB36910</t>
+  </si>
+  <si>
+    <t>TLB37010</t>
+  </si>
+  <si>
+    <t>TLB37110</t>
+  </si>
+  <si>
+    <t>TLB37210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +599,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -649,12 +775,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,6 +854,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,12 +1142,12 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.08984375" bestFit="1" customWidth="1"/>
@@ -1037,8 +1181,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1056,13 +1200,12 @@
         <v>267</v>
       </c>
       <c r="H3" s="6">
-        <f>2/100*(G3)</f>
-        <v>5.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -1080,13 +1223,12 @@
         <v>838</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H42" si="0">2/100*(G4)</f>
-        <v>16.760000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
-        <v>3</v>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1104,13 +1246,12 @@
         <v>699</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>13.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1128,13 +1269,12 @@
         <v>835</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>16.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1152,8 +1292,7 @@
         <v>685</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>13.700000000000001</v>
+        <v>2</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>11</v>
@@ -1163,8 +1302,8 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
-        <v>6</v>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -1182,8 +1321,7 @@
         <v>1598</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>31.96</v>
+        <v>2</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
@@ -1191,8 +1329,8 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
-        <v>7</v>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -1210,13 +1348,12 @@
         <v>1365</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>27.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
-        <v>8</v>
+      <c r="B10" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -1234,13 +1371,12 @@
         <v>1545</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>30.900000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
-        <v>9</v>
+      <c r="B11" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
@@ -1258,16 +1394,15 @@
         <v>1366</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>27.32</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
-        <v>10</v>
+      <c r="B12" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>34</v>
@@ -1285,13 +1420,12 @@
         <v>1285</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>25.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>11</v>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
@@ -1309,14 +1443,13 @@
         <v>1062</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>21.240000000000002</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
-        <v>12</v>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
@@ -1334,15 +1467,14 @@
         <v>1063</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>21.26</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
-        <v>13</v>
+      <c r="B15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
@@ -1360,8 +1492,7 @@
         <v>836</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>16.72</v>
+        <v>2</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -1369,8 +1500,8 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
-        <v>14</v>
+      <c r="B16" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>49</v>
@@ -1388,8 +1519,7 @@
         <v>761</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>15.22</v>
+        <v>2</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="8"/>
@@ -1397,8 +1527,8 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>15</v>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>52</v>
@@ -1416,13 +1546,12 @@
         <v>332</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6400000000000006</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
-        <v>16</v>
+      <c r="B18" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>55</v>
@@ -1440,13 +1569,12 @@
         <v>1142</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>22.84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
-        <v>17</v>
+      <c r="B19" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>58</v>
@@ -1464,13 +1592,12 @@
         <v>989</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>19.78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
-        <v>18</v>
+      <c r="B20" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -1488,13 +1615,12 @@
         <v>712</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>14.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
-        <v>19</v>
+      <c r="B21" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>64</v>
@@ -1512,13 +1638,12 @@
         <v>876</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
-        <v>17.52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
-        <v>20</v>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>66</v>
@@ -1536,13 +1661,12 @@
         <v>639</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>12.780000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <v>21</v>
+      <c r="B23" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>71</v>
@@ -1560,13 +1684,12 @@
         <v>621</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>12.42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <v>22</v>
+      <c r="B24" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>74</v>
@@ -1584,13 +1707,12 @@
         <v>601</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>12.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
-        <v>23</v>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>77</v>
@@ -1608,13 +1730,12 @@
         <v>913</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>18.260000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
-        <v>24</v>
+      <c r="B26" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
@@ -1632,13 +1753,12 @@
         <v>394</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>7.88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="3">
-        <v>25</v>
+      <c r="B27" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>82</v>
@@ -1656,13 +1776,12 @@
         <v>714</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>14.280000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="3">
-        <v>26</v>
+      <c r="B28" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>85</v>
@@ -1680,13 +1799,12 @@
         <v>1192</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>23.84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="3">
-        <v>27</v>
+      <c r="B29" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>88</v>
@@ -1704,13 +1822,12 @@
         <v>1087</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>21.740000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="3">
-        <v>28</v>
+      <c r="B30" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>91</v>
@@ -1728,13 +1845,12 @@
         <v>2919</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>58.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <v>29</v>
+      <c r="B31" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>96</v>
@@ -1752,13 +1868,12 @@
         <v>964</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>19.28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <v>30</v>
+      <c r="B32" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>99</v>
@@ -1776,13 +1891,12 @@
         <v>1918</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
-        <v>38.36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <v>31</v>
+      <c r="B33" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>102</v>
@@ -1800,13 +1914,12 @@
         <v>726</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>14.52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
-        <v>32</v>
+      <c r="B34" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>105</v>
@@ -1824,13 +1937,12 @@
         <v>6178</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
-        <v>123.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <v>33</v>
+      <c r="B35" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>109</v>
@@ -1848,13 +1960,12 @@
         <v>1215</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
-        <v>24.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
-        <v>34</v>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>112</v>
@@ -1872,13 +1983,12 @@
         <v>538</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="0"/>
-        <v>10.76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
-        <v>35</v>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>114</v>
@@ -1896,13 +2006,12 @@
         <v>993</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="0"/>
-        <v>19.86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
-        <v>36</v>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>117</v>
@@ -1920,13 +2029,12 @@
         <v>1340</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="0"/>
-        <v>26.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
-        <v>37</v>
+      <c r="B39" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>121</v>
@@ -1944,13 +2052,12 @@
         <v>1117</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="0"/>
-        <v>22.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
-        <v>38</v>
+      <c r="B40" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>124</v>
@@ -1968,13 +2075,12 @@
         <v>1120</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="0"/>
-        <v>22.400000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3">
-        <v>39</v>
+      <c r="B41" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>127</v>
@@ -1992,13 +2098,12 @@
         <v>1857</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
-        <v>37.14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="4">
-        <v>40</v>
+      <c r="B42" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>130</v>
@@ -2016,8 +2121,7 @@
         <v>13065</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="0"/>
-        <v>261.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2028,6 +2132,7 @@
   <mergeCells count="1">
     <mergeCell ref="L7:O8"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B7B57-3A7E-4094-9E63-6A158240B8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E73E75-11A1-46E2-AF4D-4E3326F5C02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,124 +432,124 @@
     <t>Cambridge University Press</t>
   </si>
   <si>
-    <t>TLB3331</t>
-  </si>
-  <si>
-    <t>TLB3341</t>
-  </si>
-  <si>
-    <t>TLB3351</t>
-  </si>
-  <si>
-    <t>TLB3361</t>
-  </si>
-  <si>
-    <t>TLB3372</t>
-  </si>
-  <si>
-    <t>TLB3382</t>
-  </si>
-  <si>
-    <t>TLB3392</t>
-  </si>
-  <si>
-    <t>TLB3402</t>
-  </si>
-  <si>
-    <t>TLB3413</t>
-  </si>
-  <si>
-    <t>TLB3423</t>
-  </si>
-  <si>
-    <t>TLB3433</t>
-  </si>
-  <si>
-    <t>TLB3443</t>
-  </si>
-  <si>
-    <t>TLB3454</t>
-  </si>
-  <si>
-    <t>TLB3464</t>
-  </si>
-  <si>
-    <t>TLB3474</t>
-  </si>
-  <si>
-    <t>TLB3484</t>
-  </si>
-  <si>
-    <t>TLB3495</t>
-  </si>
-  <si>
-    <t>TLB3505</t>
-  </si>
-  <si>
-    <t>TLB3515</t>
-  </si>
-  <si>
-    <t>TLB3525</t>
-  </si>
-  <si>
-    <t>TLB3536</t>
-  </si>
-  <si>
-    <t>TLB3546</t>
-  </si>
-  <si>
-    <t>TLB3556</t>
-  </si>
-  <si>
-    <t>TLB3566</t>
-  </si>
-  <si>
-    <t>TLB3577</t>
-  </si>
-  <si>
-    <t>TLB3587</t>
-  </si>
-  <si>
-    <t>TLB3597</t>
-  </si>
-  <si>
-    <t>TLB3607</t>
-  </si>
-  <si>
-    <t>TLB3618</t>
-  </si>
-  <si>
-    <t>TLB3628</t>
-  </si>
-  <si>
-    <t>TLB3638</t>
-  </si>
-  <si>
-    <t>TLB3648</t>
-  </si>
-  <si>
-    <t>TLB3659</t>
-  </si>
-  <si>
-    <t>TLB3669</t>
-  </si>
-  <si>
-    <t>TLB3679</t>
-  </si>
-  <si>
-    <t>TLB3689</t>
-  </si>
-  <si>
-    <t>TLB36910</t>
-  </si>
-  <si>
-    <t>TLB37010</t>
-  </si>
-  <si>
-    <t>TLB37110</t>
-  </si>
-  <si>
-    <t>TLB37210</t>
+    <t>TLB1</t>
+  </si>
+  <si>
+    <t>TLB2</t>
+  </si>
+  <si>
+    <t>TLB3</t>
+  </si>
+  <si>
+    <t>TLB4</t>
+  </si>
+  <si>
+    <t>TLB5</t>
+  </si>
+  <si>
+    <t>TLB6</t>
+  </si>
+  <si>
+    <t>TLB7</t>
+  </si>
+  <si>
+    <t>TLB8</t>
+  </si>
+  <si>
+    <t>TLB9</t>
+  </si>
+  <si>
+    <t>TLB10</t>
+  </si>
+  <si>
+    <t>TLB11</t>
+  </si>
+  <si>
+    <t>TLB12</t>
+  </si>
+  <si>
+    <t>TLB13</t>
+  </si>
+  <si>
+    <t>TLB14</t>
+  </si>
+  <si>
+    <t>TLB15</t>
+  </si>
+  <si>
+    <t>TLB16</t>
+  </si>
+  <si>
+    <t>TLB17</t>
+  </si>
+  <si>
+    <t>TLB18</t>
+  </si>
+  <si>
+    <t>TLB19</t>
+  </si>
+  <si>
+    <t>TLB20</t>
+  </si>
+  <si>
+    <t>TLB21</t>
+  </si>
+  <si>
+    <t>TLB22</t>
+  </si>
+  <si>
+    <t>TLB23</t>
+  </si>
+  <si>
+    <t>TLB24</t>
+  </si>
+  <si>
+    <t>TLB25</t>
+  </si>
+  <si>
+    <t>TLB26</t>
+  </si>
+  <si>
+    <t>TLB27</t>
+  </si>
+  <si>
+    <t>TLB28</t>
+  </si>
+  <si>
+    <t>TLB29</t>
+  </si>
+  <si>
+    <t>TLB30</t>
+  </si>
+  <si>
+    <t>TLB31</t>
+  </si>
+  <si>
+    <t>TLB32</t>
+  </si>
+  <si>
+    <t>TLB33</t>
+  </si>
+  <si>
+    <t>TLB34</t>
+  </si>
+  <si>
+    <t>TLB35</t>
+  </si>
+  <si>
+    <t>TLB36</t>
+  </si>
+  <si>
+    <t>TLB37</t>
+  </si>
+  <si>
+    <t>TLB38</t>
+  </si>
+  <si>
+    <t>TLB39</t>
+  </si>
+  <si>
+    <t>TLB40</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -775,27 +775,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color theme="1"/>
-      </left>
-      <right style="double">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,7 +1124,7 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2102,7 +2084,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="4" t="s">

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E73E75-11A1-46E2-AF4D-4E3326F5C02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D3F55-2C4D-46D5-BD56-1D845370C08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,12 +606,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -780,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,7 +816,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,6 +845,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1123,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,196 +1179,196 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="23">
         <v>267</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="23">
         <v>838</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="23">
         <v>699</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="23">
         <v>835</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="23">
         <v>685</v>
       </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="23">
         <v>1598</v>
       </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="H8" s="24">
+        <v>2</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="23">
         <v>1365</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="23">
         <v>1545</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="24">
         <v>2</v>
       </c>
     </row>
@@ -1451,7 +1467,7 @@
       <c r="H14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1479,7 +1495,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
@@ -1745,7 +1761,7 @@
       <c r="C27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1768,7 +1784,7 @@
       <c r="C28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1791,7 +1807,7 @@
       <c r="C29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1814,7 +1830,7 @@
       <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2100,15 +2116,15 @@
         <v>132</v>
       </c>
       <c r="G42" s="7">
-        <v>13065</v>
-      </c>
-      <c r="H42" s="16">
+        <v>9065</v>
+      </c>
+      <c r="H42" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/info/book_details.xlsx
+++ b/info/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravan Kumar\Desktop\git\librarymanagement\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D3F55-2C4D-46D5-BD56-1D845370C08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E0506-C210-4CB3-9CED-99BCF2F3D8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,9 +513,6 @@
     <t>TLB27</t>
   </si>
   <si>
-    <t>TLB28</t>
-  </si>
-  <si>
     <t>TLB29</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>TLB40</t>
+  </si>
+  <si>
+    <t>TLB41</t>
   </si>
 </sst>
 </file>
@@ -827,6 +827,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,17 +856,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,196 +1179,196 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="17">
         <v>267</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="17">
         <v>838</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="17">
         <v>699</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <v>835</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <v>685</v>
       </c>
-      <c r="H7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <v>1598</v>
       </c>
-      <c r="H8" s="24">
-        <v>2</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <v>1365</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <v>1545</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>1063</v>
       </c>
       <c r="H14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="11"/>
       <c r="L14" s="10"/>
